--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H2">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I2">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J2">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.145021</v>
       </c>
       <c r="O2">
-        <v>0.05773430063430857</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P2">
-        <v>0.05773430063430857</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q2">
-        <v>0.2463489612923334</v>
+        <v>0.04817119050700001</v>
       </c>
       <c r="R2">
-        <v>1.478093767754</v>
+        <v>0.2890271430420001</v>
       </c>
       <c r="S2">
-        <v>0.03254211484088566</v>
+        <v>0.3344175160643875</v>
       </c>
       <c r="T2">
-        <v>0.02739244465479765</v>
+        <v>0.284752156973049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H3">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I3">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J3">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3599349999999999</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N3">
-        <v>1.079805</v>
+        <v>0.052279</v>
       </c>
       <c r="O3">
-        <v>0.429881096506227</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P3">
-        <v>0.429881096506227</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q3">
-        <v>1.834278071095</v>
+        <v>0.017365358593</v>
       </c>
       <c r="R3">
-        <v>11.00566842657</v>
+        <v>0.104192151558</v>
       </c>
       <c r="S3">
-        <v>0.2423037926628732</v>
+        <v>0.1205550459749286</v>
       </c>
       <c r="T3">
-        <v>0.2039601071601614</v>
+        <v>0.1026510506367631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.096137</v>
+        <v>0.351338</v>
       </c>
       <c r="H4">
-        <v>10.192274</v>
+        <v>1.054014</v>
       </c>
       <c r="I4">
-        <v>0.5636530534423333</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J4">
-        <v>0.4744570273450183</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4290143333333333</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N4">
-        <v>1.287043</v>
+        <v>0.145021</v>
       </c>
       <c r="O4">
-        <v>0.5123846028594644</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P4">
-        <v>0.5123846028594644</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q4">
-        <v>2.186315817630333</v>
+        <v>0.01698379603266667</v>
       </c>
       <c r="R4">
-        <v>13.117894905782</v>
+        <v>0.152854164294</v>
       </c>
       <c r="S4">
-        <v>0.2888071459385744</v>
+        <v>0.1179061348247817</v>
       </c>
       <c r="T4">
-        <v>0.2431044755300593</v>
+        <v>0.1505933059674758</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>1.054014</v>
       </c>
       <c r="I5">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J5">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04834033333333334</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N5">
-        <v>0.145021</v>
+        <v>0.052279</v>
       </c>
       <c r="O5">
-        <v>0.05773430063430857</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P5">
-        <v>0.05773430063430857</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q5">
-        <v>0.01698379603266667</v>
+        <v>0.006122533100666666</v>
       </c>
       <c r="R5">
-        <v>0.152854164294</v>
+        <v>0.055102797906</v>
       </c>
       <c r="S5">
-        <v>0.002243519266449683</v>
+        <v>0.04250429125785066</v>
       </c>
       <c r="T5">
-        <v>0.002832735870364346</v>
+        <v>0.0542877751682423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.351338</v>
+        <v>0.115181</v>
       </c>
       <c r="H6">
-        <v>1.054014</v>
+        <v>0.345543</v>
       </c>
       <c r="I6">
-        <v>0.03885938240873872</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J6">
-        <v>0.04906504173848075</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3599349999999999</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N6">
-        <v>1.079805</v>
+        <v>0.145021</v>
       </c>
       <c r="O6">
-        <v>0.429881096506227</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P6">
-        <v>0.429881096506227</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q6">
-        <v>0.12645884303</v>
+        <v>0.005567887933666667</v>
       </c>
       <c r="R6">
-        <v>1.13812958727</v>
+        <v>0.050110991403</v>
       </c>
       <c r="S6">
-        <v>0.01670491391942339</v>
+        <v>0.03865379354141362</v>
       </c>
       <c r="T6">
-        <v>0.0210921339426619</v>
+        <v>0.04936980222645951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.351338</v>
+        <v>0.115181</v>
       </c>
       <c r="H7">
-        <v>1.054014</v>
+        <v>0.345543</v>
       </c>
       <c r="I7">
-        <v>0.03885938240873872</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J7">
-        <v>0.04906504173848075</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4290143333333333</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N7">
-        <v>1.287043</v>
+        <v>0.052279</v>
       </c>
       <c r="O7">
-        <v>0.5123846028594644</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P7">
-        <v>0.5123846028594644</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q7">
-        <v>0.1507290378446667</v>
+        <v>0.002007182499666666</v>
       </c>
       <c r="R7">
-        <v>1.356561340602</v>
+        <v>0.018064642497</v>
       </c>
       <c r="S7">
-        <v>0.01991094922286565</v>
+        <v>0.01393440724137582</v>
       </c>
       <c r="T7">
-        <v>0.0251401719254545</v>
+        <v>0.01779744927008555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1440186666666667</v>
+        <v>0.4297155</v>
       </c>
       <c r="H8">
-        <v>0.432056</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I8">
-        <v>0.01592903825375186</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J8">
-        <v>0.02011248965702642</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,27 +939,27 @@
         <v>0.145021</v>
       </c>
       <c r="O8">
-        <v>0.05773430063430857</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P8">
-        <v>0.05773430063430857</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q8">
-        <v>0.006961910352888889</v>
+        <v>0.0207725905085</v>
       </c>
       <c r="R8">
-        <v>0.06265719317600001</v>
+        <v>0.124635543051</v>
       </c>
       <c r="S8">
-        <v>0.0009196518833575115</v>
+        <v>0.1442089773360652</v>
       </c>
       <c r="T8">
-        <v>0.001161180524363185</v>
+        <v>0.1227920649449948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1440186666666667</v>
+        <v>0.4297155</v>
       </c>
       <c r="H9">
-        <v>0.432056</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I9">
-        <v>0.01592903825375186</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J9">
-        <v>0.02011248965702642</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3599349999999999</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N9">
-        <v>1.079805</v>
+        <v>0.052279</v>
       </c>
       <c r="O9">
-        <v>0.429881096506227</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P9">
-        <v>0.429881096506227</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q9">
-        <v>0.05183735878666666</v>
+        <v>0.0074883655415</v>
       </c>
       <c r="R9">
-        <v>0.46653622908</v>
+        <v>0.044930193249</v>
       </c>
       <c r="S9">
-        <v>0.006847592430812487</v>
+        <v>0.05198627182375071</v>
       </c>
       <c r="T9">
-        <v>0.008645979107232665</v>
+        <v>0.04426563299976818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1440186666666667</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H10">
-        <v>0.432056</v>
+        <v>0.480004</v>
       </c>
       <c r="I10">
-        <v>0.01592903825375186</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J10">
-        <v>0.02011248965702642</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.4290143333333333</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N10">
-        <v>1.287043</v>
+        <v>0.145021</v>
       </c>
       <c r="O10">
-        <v>0.5123846028594644</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P10">
-        <v>0.5123846028594644</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q10">
-        <v>0.06178607226755555</v>
+        <v>0.007734517787111113</v>
       </c>
       <c r="R10">
-        <v>0.556074650408</v>
+        <v>0.06961066008400001</v>
       </c>
       <c r="S10">
-        <v>0.008161793939581864</v>
+        <v>0.05369512771218837</v>
       </c>
       <c r="T10">
-        <v>0.01030533002543057</v>
+        <v>0.06858105227977263</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.545685</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H11">
-        <v>1.09137</v>
+        <v>0.480004</v>
       </c>
       <c r="I11">
-        <v>0.06035493481978205</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J11">
-        <v>0.05080398799458616</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04834033333333334</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N11">
-        <v>0.145021</v>
+        <v>0.052279</v>
       </c>
       <c r="O11">
-        <v>0.05773430063430857</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P11">
-        <v>0.05773430063430857</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q11">
-        <v>0.026378594795</v>
+        <v>0.002788236568444445</v>
       </c>
       <c r="R11">
-        <v>0.15827156877</v>
+        <v>0.025094129116</v>
       </c>
       <c r="S11">
-        <v>0.003484549951649395</v>
+        <v>0.01935669717948087</v>
       </c>
       <c r="T11">
-        <v>0.00293313271630124</v>
+        <v>0.0247229631028212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.545685</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H12">
-        <v>1.09137</v>
+        <v>0.412522</v>
       </c>
       <c r="I12">
-        <v>0.06035493481978205</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J12">
-        <v>0.05080398799458616</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3599349999999999</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="N12">
-        <v>1.079805</v>
+        <v>0.145021</v>
       </c>
       <c r="O12">
-        <v>0.429881096506227</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="P12">
-        <v>0.429881096506227</v>
+        <v>0.7350278763304613</v>
       </c>
       <c r="Q12">
-        <v>0.196411130475</v>
+        <v>0.006647150329111113</v>
       </c>
       <c r="R12">
-        <v>1.17846678285</v>
+        <v>0.059824352962</v>
       </c>
       <c r="S12">
-        <v>0.02594544555988977</v>
+        <v>0.04614632685162493</v>
       </c>
       <c r="T12">
-        <v>0.02183967406600189</v>
+        <v>0.0589394939387096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,424 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.545685</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H13">
-        <v>1.09137</v>
+        <v>0.412522</v>
       </c>
       <c r="I13">
-        <v>0.06035493481978205</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J13">
-        <v>0.05080398799458616</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4290143333333333</v>
+        <v>0.01742633333333333</v>
       </c>
       <c r="N13">
-        <v>1.287043</v>
+        <v>0.052279</v>
       </c>
       <c r="O13">
-        <v>0.5123846028594644</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="P13">
-        <v>0.5123846028594644</v>
+        <v>0.2649721236695388</v>
       </c>
       <c r="Q13">
-        <v>0.234106686485</v>
+        <v>0.002396248626444444</v>
       </c>
       <c r="R13">
-        <v>1.40464011891</v>
+        <v>0.021566237638</v>
       </c>
       <c r="S13">
-        <v>0.03092493930824289</v>
+        <v>0.01663541019215217</v>
       </c>
       <c r="T13">
-        <v>0.02603118121228302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.756382333333333</v>
-      </c>
-      <c r="H14">
-        <v>8.269147</v>
-      </c>
-      <c r="I14">
-        <v>0.3048668665378966</v>
-      </c>
-      <c r="J14">
-        <v>0.3849342064684463</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.04834033333333334</v>
-      </c>
-      <c r="N14">
-        <v>0.145021</v>
-      </c>
-      <c r="O14">
-        <v>0.05773430063430857</v>
-      </c>
-      <c r="P14">
-        <v>0.05773430063430857</v>
-      </c>
-      <c r="Q14">
-        <v>0.1332444407874445</v>
-      </c>
-      <c r="R14">
-        <v>1.199199967087</v>
-      </c>
-      <c r="S14">
-        <v>0.01760127532613855</v>
-      </c>
-      <c r="T14">
-        <v>0.02222390720067828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.756382333333333</v>
-      </c>
-      <c r="H15">
-        <v>8.269147</v>
-      </c>
-      <c r="I15">
-        <v>0.3048668665378966</v>
-      </c>
-      <c r="J15">
-        <v>0.3849342064684463</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.3599349999999999</v>
-      </c>
-      <c r="N15">
-        <v>1.079805</v>
-      </c>
-      <c r="O15">
-        <v>0.429881096506227</v>
-      </c>
-      <c r="P15">
-        <v>0.429881096506227</v>
-      </c>
-      <c r="Q15">
-        <v>0.9921184751483332</v>
-      </c>
-      <c r="R15">
-        <v>8.929066276335</v>
-      </c>
-      <c r="S15">
-        <v>0.1310565028757286</v>
-      </c>
-      <c r="T15">
-        <v>0.1654759387594101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.756382333333333</v>
-      </c>
-      <c r="H16">
-        <v>8.269147</v>
-      </c>
-      <c r="I16">
-        <v>0.3048668665378966</v>
-      </c>
-      <c r="J16">
-        <v>0.3849342064684463</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4290143333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.287043</v>
-      </c>
-      <c r="O16">
-        <v>0.5123846028594644</v>
-      </c>
-      <c r="P16">
-        <v>0.5123846028594644</v>
-      </c>
-      <c r="Q16">
-        <v>1.182527529146778</v>
-      </c>
-      <c r="R16">
-        <v>10.642747762321</v>
-      </c>
-      <c r="S16">
-        <v>0.1562090883360295</v>
-      </c>
-      <c r="T16">
-        <v>0.1972343605083579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.1477046666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.443114</v>
-      </c>
-      <c r="I17">
-        <v>0.01633672453749746</v>
-      </c>
-      <c r="J17">
-        <v>0.02062724679644214</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.04834033333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.145021</v>
-      </c>
-      <c r="O17">
-        <v>0.05773430063430857</v>
-      </c>
-      <c r="P17">
-        <v>0.05773430063430857</v>
-      </c>
-      <c r="Q17">
-        <v>0.007140092821555557</v>
-      </c>
-      <c r="R17">
-        <v>0.064260835394</v>
-      </c>
-      <c r="S17">
-        <v>0.0009431893658277641</v>
-      </c>
-      <c r="T17">
-        <v>0.001190899667803869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.1477046666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.443114</v>
-      </c>
-      <c r="I18">
-        <v>0.01633672453749746</v>
-      </c>
-      <c r="J18">
-        <v>0.02062724679644214</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.3599349999999999</v>
-      </c>
-      <c r="N18">
-        <v>1.079805</v>
-      </c>
-      <c r="O18">
-        <v>0.429881096506227</v>
-      </c>
-      <c r="P18">
-        <v>0.429881096506227</v>
-      </c>
-      <c r="Q18">
-        <v>0.05316407919666667</v>
-      </c>
-      <c r="R18">
-        <v>0.47847671277</v>
-      </c>
-      <c r="S18">
-        <v>0.007022849057499594</v>
-      </c>
-      <c r="T18">
-        <v>0.008867263470759104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.1477046666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.443114</v>
-      </c>
-      <c r="I19">
-        <v>0.01633672453749746</v>
-      </c>
-      <c r="J19">
-        <v>0.02062724679644214</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4290143333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.287043</v>
-      </c>
-      <c r="O19">
-        <v>0.5123846028594644</v>
-      </c>
-      <c r="P19">
-        <v>0.5123846028594644</v>
-      </c>
-      <c r="Q19">
-        <v>0.06336741910022223</v>
-      </c>
-      <c r="R19">
-        <v>0.570306771902</v>
-      </c>
-      <c r="S19">
-        <v>0.008370686114170106</v>
-      </c>
-      <c r="T19">
-        <v>0.01056908365787916</v>
+        <v>0.02124725249185841</v>
       </c>
     </row>
   </sheetData>
